--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-3.107661574595755</v>
       </c>
       <c r="AG17">
-        <v>-4.65090747647452</v>
+        <v>-8.268943763593061</v>
       </c>
       <c r="AH17">
         <v>-4.207901339433196</v>
@@ -2451,19 +2451,19 @@
         <v>-8.513835774399992</v>
       </c>
       <c r="AG18">
-        <v>16.69343145309163</v>
+        <v>-31.94180729997804</v>
       </c>
       <c r="AH18">
-        <v>-0.6332519459683494</v>
+        <v>23.52713729381604</v>
       </c>
       <c r="AI18">
-        <v>-0.3135161753049287</v>
+        <v>1.269625353117165</v>
       </c>
       <c r="AJ18">
-        <v>0.6949587062036411</v>
+        <v>-1.621578487659159</v>
       </c>
       <c r="AK18">
-        <v>0.7583924418458787</v>
+        <v>0.7868572467511603</v>
       </c>
       <c r="AL18">
         <v>1.099928004397532</v>
@@ -2522,31 +2522,31 @@
         <v>-8.513835774400025</v>
       </c>
       <c r="AG19">
-        <v>29.32442187042816</v>
+        <v>-33.48417392399605</v>
       </c>
       <c r="AH19">
-        <v>-1.590425574400001</v>
+        <v>38.48527504154078</v>
       </c>
       <c r="AI19">
-        <v>-2.807860884474733</v>
+        <v>1.369491273484913</v>
       </c>
       <c r="AJ19">
-        <v>4.530463903052695</v>
+        <v>-7.034216978939012</v>
       </c>
       <c r="AK19">
-        <v>5.353281688849409</v>
+        <v>5.737052250893804</v>
       </c>
       <c r="AL19">
-        <v>0.4297312830033428</v>
+        <v>6.182044950645005</v>
       </c>
       <c r="AM19">
-        <v>2.258175284742725</v>
+        <v>1.019629253669163</v>
       </c>
       <c r="AN19">
-        <v>2.016988966764255</v>
+        <v>1.906376895025019</v>
       </c>
       <c r="AO19">
-        <v>2.236860175919531</v>
+        <v>2.262414851847194</v>
       </c>
       <c r="AP19">
         <v>2.310042359896225</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-2.807860884474744</v>
-      </c>
       <c r="AJ20">
-        <v>5.343868181399247</v>
+        <v>-7.034216978939001</v>
       </c>
       <c r="AK20">
-        <v>6.220034061148216</v>
+        <v>6.694136025439001</v>
       </c>
       <c r="AL20">
-        <v>-2.14256690056942</v>
+        <v>6.95128945251926</v>
       </c>
       <c r="AM20">
-        <v>1.874171968961869</v>
+        <v>-1.381539669055609</v>
       </c>
       <c r="AN20">
-        <v>1.492291178243965</v>
+        <v>0.9449384537271177</v>
       </c>
       <c r="AO20">
-        <v>0.3985453946335094</v>
+        <v>0.7242061245421816</v>
       </c>
       <c r="AP20">
-        <v>-0.177017417229286</v>
+        <v>1.559758801257694</v>
       </c>
       <c r="AQ20">
-        <v>-0.1441795889054687</v>
+        <v>-0.4844381132618425</v>
       </c>
       <c r="AR20">
-        <v>-0.1519071329076249</v>
+        <v>-0.4925007786849345</v>
       </c>
       <c r="AS20">
-        <v>-0.09588622947416248</v>
+        <v>-0.0462759835394122</v>
       </c>
       <c r="AT20">
         <v>0.0464415346324687</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.874171968961869</v>
-      </c>
       <c r="AN21">
-        <v>1.528685969651367</v>
+        <v>0.9449384537270955</v>
       </c>
       <c r="AO21">
-        <v>0.1600960256025408</v>
+        <v>0.5600718620764722</v>
       </c>
       <c r="AP21">
-        <v>-1.154963748527182</v>
+        <v>1.610220125011574</v>
       </c>
       <c r="AQ21">
-        <v>-0.8289226263154981</v>
+        <v>-1.729907735624048</v>
       </c>
       <c r="AR21">
-        <v>0.3688835244738842</v>
+        <v>-1.334423413378338</v>
       </c>
       <c r="AS21">
-        <v>-0.5974824858474559</v>
+        <v>0.04644557489568157</v>
       </c>
       <c r="AT21">
-        <v>0.08221134935635366</v>
+        <v>-0.3513551123189185</v>
       </c>
       <c r="AU21">
-        <v>-0.377538644385722</v>
+        <v>-0.6828258883444405</v>
       </c>
       <c r="AV21">
-        <v>-0.01173401322185352</v>
+        <v>-0.04522577349396206</v>
       </c>
       <c r="AW21">
-        <v>-0.2385784141923808</v>
+        <v>-0.2434639036892561</v>
       </c>
       <c r="AX21">
         <v>-0.3101476031197148</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-0.828922626315487</v>
-      </c>
       <c r="AR22">
-        <v>0.4834653893603269</v>
+        <v>-1.334423413378361</v>
       </c>
       <c r="AS22">
-        <v>-0.7180583317502487</v>
+        <v>0.07429948659758434</v>
       </c>
       <c r="AT22">
-        <v>0.1761161940773581</v>
+        <v>-0.5174862215317932</v>
       </c>
       <c r="AU22">
-        <v>-0.3296319120892899</v>
+        <v>-1.143293480177676</v>
       </c>
       <c r="AV22">
-        <v>1.025808301409614</v>
+        <v>0.8571375889190769</v>
       </c>
       <c r="AW22">
-        <v>-0.1293951476914468</v>
+        <v>-0.1929563298375347</v>
       </c>
       <c r="AX22">
-        <v>0.5295174046934692</v>
+        <v>0.2561130241983234</v>
       </c>
       <c r="AY22">
-        <v>0.1482615292711431</v>
+        <v>-0.5104822884906213</v>
       </c>
       <c r="AZ22">
-        <v>0.1328390304517146</v>
+        <v>0.4071596777631692</v>
       </c>
       <c r="BA22">
-        <v>-0.0960403240804597</v>
+        <v>-0.1890291825527246</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.329631912089301</v>
-      </c>
       <c r="AV23">
-        <v>1.037018643779275</v>
+        <v>0.8571375889190769</v>
       </c>
       <c r="AW23">
-        <v>-0.1885686110802198</v>
+        <v>-0.266761661027104</v>
       </c>
       <c r="AX23">
-        <v>0.8596767210133249</v>
+        <v>0.4215001129234563</v>
       </c>
       <c r="AY23">
-        <v>0.9611939328737495</v>
+        <v>-0.7997432499605051</v>
       </c>
       <c r="AZ23">
-        <v>0.2797831653477356</v>
+        <v>1.656803071859136</v>
       </c>
       <c r="BA23">
-        <v>0.2498944033941575</v>
+        <v>-0.9576579957582099</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.9611939328737495</v>
-      </c>
       <c r="AZ24">
-        <v>0.1888489292858564</v>
+        <v>1.656803071859136</v>
       </c>
       <c r="BA24">
-        <v>0.3843508747067848</v>
+        <v>-1.102152441984738</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>2.762044077622594</v>
+      </c>
+      <c r="C3">
+        <v>6.253707197847591</v>
+      </c>
+      <c r="D3">
+        <v>-1.563633964192079</v>
+      </c>
+      <c r="E3">
+        <v>-7.921319741078636</v>
+      </c>
+      <c r="F3">
+        <v>-4.774178217057756</v>
+      </c>
+      <c r="G3">
+        <v>-4.760532145915263</v>
+      </c>
+      <c r="H3">
+        <v>-4.64769908574405</v>
+      </c>
+      <c r="I3">
+        <v>-4.79335465120081</v>
+      </c>
+      <c r="J3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="K3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="L3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="M3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="N3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="O3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="P3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Q3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="R3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="S3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="T3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="U3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="V3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="W3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="X3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Y3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Z3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AA3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AB3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AC3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AD3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AE3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AF3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AG3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AH3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AI3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AK3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AL3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AM3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AN3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AO3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AP3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AQ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AR3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AS3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AT3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AU3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AV3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AW3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AX3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AY3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AZ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="BA3">
+        <v>-5.109987415979145</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>3.145939949069287</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>3.17221104132186</v>
+        <v>6.253707197847591</v>
       </c>
       <c r="D4">
-        <v>3.193486170118987</v>
+        <v>-2.081196018249276</v>
       </c>
       <c r="E4">
-        <v>3.193486170118987</v>
+        <v>-14.35806537048446</v>
       </c>
       <c r="F4">
-        <v>3.164039117354789</v>
+        <v>1.68591416918662</v>
       </c>
       <c r="G4">
-        <v>3.164039117354789</v>
+        <v>0.2827737265587604</v>
       </c>
       <c r="H4">
-        <v>3.164039117354789</v>
+        <v>1.97975191822708</v>
       </c>
       <c r="I4">
-        <v>3.164039117354789</v>
+        <v>2.02543877101049</v>
       </c>
       <c r="J4">
-        <v>3.164039117354789</v>
+        <v>2.025582195627096</v>
       </c>
       <c r="K4">
-        <v>3.164039117354789</v>
+        <v>2.025582195627096</v>
       </c>
       <c r="L4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="M4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="N4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="O4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="P4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Q4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="R4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="S4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="T4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="U4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="V4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="W4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="X4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Y4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Z4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AA4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AB4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AC4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AD4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AE4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AF4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AG4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AH4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AI4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AJ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AK4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AL4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AM4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AN4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AO4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AP4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AQ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AR4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AS4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AT4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AU4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AV4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AW4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AX4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AY4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AZ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="BA4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>2.51031180018495</v>
-      </c>
-      <c r="C5">
-        <v>3.348624516477416</v>
-      </c>
-      <c r="D5">
-        <v>1.769627576887389</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.829031788027469</v>
+        <v>-14.35806537048445</v>
       </c>
       <c r="F5">
-        <v>1.813179730027836</v>
+        <v>2.944106604962227</v>
       </c>
       <c r="G5">
-        <v>1.813179730027836</v>
+        <v>0.646969966709543</v>
       </c>
       <c r="H5">
-        <v>1.552341155841508</v>
+        <v>3.609042024648068</v>
       </c>
       <c r="I5">
-        <v>1.552341155841508</v>
+        <v>4.453626355171969</v>
       </c>
       <c r="J5">
-        <v>1.552341155841508</v>
+        <v>3.452886745653183</v>
       </c>
       <c r="K5">
-        <v>1.552341155841508</v>
+        <v>3.494665504336103</v>
       </c>
       <c r="L5">
-        <v>1.552341155841508</v>
+        <v>3.678633086108718</v>
       </c>
       <c r="M5">
-        <v>1.552341155841508</v>
+        <v>3.678633086108718</v>
       </c>
       <c r="N5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="O5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="P5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Q5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="R5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="S5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="T5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="U5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="V5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="W5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="X5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Y5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Z5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AA5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AB5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AC5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AD5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AE5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AF5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AG5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AH5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AI5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AJ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AK5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AL5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AM5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AN5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AO5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AP5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AQ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AR5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AS5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AT5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AU5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AV5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AW5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AX5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AY5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AZ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="BA5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>2.762044077622594</v>
-      </c>
-      <c r="C6">
-        <v>6.253707197847636</v>
-      </c>
-      <c r="D6">
-        <v>-1.56363396419209</v>
-      </c>
-      <c r="E6">
-        <v>-7.921319741078669</v>
-      </c>
-      <c r="F6">
-        <v>-4.774178217057779</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-4.760532145915308</v>
+        <v>0.646969966709543</v>
       </c>
       <c r="H6">
-        <v>-4.64769908574405</v>
+        <v>2.82953744009995</v>
       </c>
       <c r="I6">
-        <v>-4.79335465120082</v>
+        <v>6.136355062499965</v>
       </c>
       <c r="J6">
-        <v>-5.109987415979155</v>
+        <v>2.114249845651872</v>
       </c>
       <c r="K6">
-        <v>-5.109987415979155</v>
+        <v>1.477633171193116</v>
       </c>
       <c r="L6">
-        <v>-5.109987415979155</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="M6">
-        <v>-5.109987415979155</v>
+        <v>1.268854739375569</v>
       </c>
       <c r="N6">
-        <v>-5.109987415979155</v>
+        <v>1.354224369830748</v>
       </c>
       <c r="O6">
-        <v>-5.109987415979155</v>
+        <v>1.354224369830748</v>
       </c>
       <c r="P6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Q6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="R6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="S6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="T6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="U6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="V6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="W6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="X6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Y6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Z6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AA6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AB6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AC6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AD6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AE6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AF6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AG6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AH6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AI6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AJ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AK6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AL6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AM6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AN6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AO6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AP6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AQ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AR6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AS6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AT6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AU6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AV6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AW6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AX6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AY6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AZ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="BA6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>6.253707197847613</v>
-      </c>
-      <c r="D7">
-        <v>-2.081196018249243</v>
-      </c>
-      <c r="E7">
-        <v>-14.35806537048445</v>
-      </c>
-      <c r="F7">
-        <v>1.68591416918662</v>
-      </c>
-      <c r="G7">
-        <v>0.2827737265587604</v>
-      </c>
-      <c r="H7">
-        <v>1.97975191822708</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.025438771010513</v>
+        <v>6.136355062499965</v>
       </c>
       <c r="J7">
-        <v>2.025582195627118</v>
+        <v>2.015050062499979</v>
       </c>
       <c r="K7">
-        <v>2.025582195627118</v>
+        <v>2.015050062499957</v>
       </c>
       <c r="L7">
-        <v>2.253603114136604</v>
+        <v>0.9276342348636168</v>
       </c>
       <c r="M7">
-        <v>2.253603114136604</v>
+        <v>-0.2005250704869121</v>
       </c>
       <c r="N7">
-        <v>2.253603114136604</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="O7">
-        <v>2.253603114136604</v>
+        <v>0.2576645950255863</v>
       </c>
       <c r="P7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Q7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="R7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="S7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="T7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="U7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="V7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="W7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="X7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Y7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Z7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AA7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AB7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AC7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AD7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AE7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AF7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AG7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AH7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AI7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AJ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AK7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AL7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AM7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AN7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AO7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AP7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AQ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AR7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AS7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AT7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AU7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AV7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AW7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AX7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AY7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AZ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="BA7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-14.35806537048446</v>
-      </c>
-      <c r="F8">
-        <v>2.944106604962182</v>
-      </c>
-      <c r="G8">
-        <v>0.646969966709543</v>
-      </c>
-      <c r="H8">
-        <v>3.609042024648068</v>
-      </c>
-      <c r="I8">
-        <v>4.453626355171969</v>
-      </c>
-      <c r="J8">
-        <v>3.452886745653183</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>3.494665504336103</v>
+        <v>2.015050062499935</v>
       </c>
       <c r="L8">
-        <v>3.67863308610874</v>
+        <v>0.8024032016000104</v>
       </c>
       <c r="M8">
-        <v>3.67863308610874</v>
+        <v>0.2533625145866525</v>
       </c>
       <c r="N8">
-        <v>3.738382206110868</v>
+        <v>1.3307042289459</v>
       </c>
       <c r="O8">
-        <v>3.738382206110868</v>
+        <v>2.234527904461148</v>
       </c>
       <c r="P8">
-        <v>3.738382206110868</v>
+        <v>1.51977456621637</v>
       </c>
       <c r="Q8">
-        <v>3.738382206110868</v>
+        <v>1.523363320150239</v>
       </c>
       <c r="R8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="S8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="T8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="U8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="V8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="W8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="X8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="Y8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="Z8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AA8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AB8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AC8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AD8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AE8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AF8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AG8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AH8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AI8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AJ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AK8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AL8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AM8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AN8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AO8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AP8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AQ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AR8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AS8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AT8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AU8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AV8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AW8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AX8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AY8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AZ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="BA8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.646969966709543</v>
-      </c>
-      <c r="H9">
-        <v>2.829537440099972</v>
-      </c>
-      <c r="I9">
-        <v>6.136355062499943</v>
-      </c>
-      <c r="J9">
-        <v>2.11424984565185</v>
-      </c>
-      <c r="K9">
-        <v>1.477633171193093</v>
-      </c>
-      <c r="L9">
-        <v>1.239479831392853</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.268854739375591</v>
+        <v>0.2533625145866303</v>
       </c>
       <c r="N9">
-        <v>1.354224369830725</v>
+        <v>1.205410808099971</v>
       </c>
       <c r="O9">
-        <v>1.354224369830725</v>
+        <v>3.31205545981732</v>
       </c>
       <c r="P9">
-        <v>1.165974434765649</v>
+        <v>0.3626364251072101</v>
       </c>
       <c r="Q9">
-        <v>1.165974434765649</v>
+        <v>1.311727872618218</v>
       </c>
       <c r="R9">
-        <v>1.165974434765649</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="S9">
-        <v>1.165974434765649</v>
+        <v>1.477690462805548</v>
       </c>
       <c r="T9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="U9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="V9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="W9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="X9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="Y9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="Z9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AA9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AB9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AC9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AD9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AE9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AF9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AG9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AH9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AI9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AJ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AK9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AL9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AM9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AN9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AO9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AP9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AQ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AR9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AS9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AT9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AU9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AV9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AW9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AX9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AY9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AZ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="BA9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>6.136355062499943</v>
-      </c>
-      <c r="J10">
-        <v>2.015050062499979</v>
-      </c>
-      <c r="K10">
-        <v>2.015050062499957</v>
-      </c>
-      <c r="L10">
-        <v>0.9276342348636168</v>
-      </c>
-      <c r="M10">
-        <v>-0.2005250704869344</v>
-      </c>
-      <c r="N10">
-        <v>0.2379616621361214</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.2576645950256085</v>
+        <v>3.312055459817298</v>
       </c>
       <c r="P10">
-        <v>-0.04267197517882071</v>
+        <v>0.2652204650353651</v>
       </c>
       <c r="Q10">
-        <v>-0.04267197517882071</v>
+        <v>1.093673275363694</v>
       </c>
       <c r="R10">
-        <v>-0.04267197517882071</v>
+        <v>1.339087911421122</v>
       </c>
       <c r="S10">
-        <v>-0.04267197517882071</v>
+        <v>1.784808447869191</v>
       </c>
       <c r="T10">
-        <v>-0.04267197517882071</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="U10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="V10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="W10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="X10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="Y10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="Z10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AA10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AB10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AC10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AD10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AE10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AF10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AG10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AH10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AI10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AJ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AK10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AL10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AM10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AN10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AO10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AP10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AQ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AR10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AS10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AT10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AU10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AV10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AW10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AX10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AY10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AZ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="BA10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>2.015050062499957</v>
-      </c>
-      <c r="L11">
-        <v>0.8024032016000326</v>
-      </c>
-      <c r="M11">
-        <v>0.2533625145866525</v>
-      </c>
-      <c r="N11">
-        <v>1.3307042289459</v>
-      </c>
-      <c r="O11">
-        <v>2.234527904461125</v>
-      </c>
-      <c r="P11">
-        <v>1.51977456621637</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.523363320150262</v>
+        <v>1.093673275363694</v>
       </c>
       <c r="R11">
-        <v>1.529758493743416</v>
+        <v>1.269699394806612</v>
       </c>
       <c r="S11">
-        <v>1.529758493743416</v>
+        <v>2.687934870329323</v>
       </c>
       <c r="T11">
-        <v>1.529758493743416</v>
+        <v>1.006353890555212</v>
       </c>
       <c r="U11">
-        <v>1.529758493743416</v>
+        <v>1.874682902292824</v>
       </c>
       <c r="V11">
-        <v>1.529758493743416</v>
+        <v>2.161565493242668</v>
       </c>
       <c r="W11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="X11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="Y11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="Z11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AA11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AB11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AC11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AD11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AE11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AF11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AG11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AH11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AI11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AJ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AK11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AL11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AM11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AN11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AO11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AP11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AQ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AR11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AS11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AT11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AU11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AV11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AW11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AX11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AY11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AZ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="BA11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.2533625145866525</v>
-      </c>
-      <c r="N12">
-        <v>1.205410808099949</v>
-      </c>
-      <c r="O12">
-        <v>3.31205545981732</v>
-      </c>
-      <c r="P12">
-        <v>0.3626364251072101</v>
-      </c>
-      <c r="Q12">
-        <v>1.31172787261824</v>
-      </c>
-      <c r="R12">
-        <v>1.470039379455756</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>1.477690462805548</v>
+        <v>2.687934870329323</v>
       </c>
       <c r="T12">
-        <v>1.358758534900439</v>
+        <v>0.7667337981632771</v>
       </c>
       <c r="U12">
-        <v>1.358758534900439</v>
+        <v>2.445693358388845</v>
       </c>
       <c r="V12">
-        <v>1.358758534900439</v>
+        <v>3.257358596620663</v>
       </c>
       <c r="W12">
-        <v>1.358758534900439</v>
+        <v>2.634902838428399</v>
       </c>
       <c r="X12">
-        <v>1.358758534900439</v>
+        <v>2.159589514946725</v>
       </c>
       <c r="Y12">
-        <v>1.358758534900439</v>
+        <v>2.330656125352215</v>
       </c>
       <c r="Z12">
-        <v>1.358758534900439</v>
+        <v>2.214251681313772</v>
       </c>
       <c r="AA12">
-        <v>1.358758534900439</v>
+        <v>2.168907011988197</v>
       </c>
       <c r="AB12">
-        <v>1.358758534900439</v>
+        <v>2.214251681313772</v>
       </c>
       <c r="AC12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AD12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AE12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AF12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AG12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AH12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AI12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AJ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AK12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AL12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AM12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AN12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AO12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AP12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AQ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AR12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AS12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AT12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AU12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AV12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AW12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AX12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AY12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AZ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="BA12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>3.312055459817342</v>
-      </c>
-      <c r="P13">
-        <v>0.2652204650353207</v>
-      </c>
-      <c r="Q13">
-        <v>1.093673275363716</v>
-      </c>
-      <c r="R13">
-        <v>1.339087911421144</v>
-      </c>
-      <c r="S13">
-        <v>1.784808447869168</v>
-      </c>
-      <c r="T13">
-        <v>1.638797242243251</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.664905435092323</v>
+        <v>2.445693358388801</v>
       </c>
       <c r="V13">
-        <v>1.664905435092323</v>
+        <v>3.337666864754008</v>
       </c>
       <c r="W13">
-        <v>1.664905435092323</v>
+        <v>2.450082126686826</v>
       </c>
       <c r="X13">
-        <v>1.664905435092323</v>
+        <v>1.194430031759008</v>
       </c>
       <c r="Y13">
-        <v>1.664905435092323</v>
+        <v>1.797074113438568</v>
       </c>
       <c r="Z13">
-        <v>1.664905435092323</v>
+        <v>-0.301339632123987</v>
       </c>
       <c r="AA13">
-        <v>1.664905435092323</v>
+        <v>0.2120367165967307</v>
       </c>
       <c r="AB13">
-        <v>1.664905435092323</v>
+        <v>0.8014493436638848</v>
       </c>
       <c r="AC13">
-        <v>1.664905435092323</v>
+        <v>0.5878492443567529</v>
       </c>
       <c r="AD13">
-        <v>1.664905435092323</v>
+        <v>0.6066442151010376</v>
       </c>
       <c r="AE13">
-        <v>1.664905435092323</v>
+        <v>0.6401509985818787</v>
       </c>
       <c r="AF13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AG13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AH13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AI13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AJ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AK13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AL13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AM13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AN13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AO13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AP13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AQ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AR13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AS13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AT13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AU13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AV13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AW13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AX13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AY13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AZ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="BA13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.093673275363694</v>
-      </c>
-      <c r="R14">
-        <v>1.269699394806634</v>
-      </c>
-      <c r="S14">
-        <v>2.687934870329323</v>
-      </c>
-      <c r="T14">
-        <v>1.006353890555189</v>
-      </c>
-      <c r="U14">
-        <v>1.874682902292824</v>
-      </c>
-      <c r="V14">
-        <v>2.161565493242668</v>
-      </c>
-      <c r="W14">
-        <v>2.145670176886982</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.145670176886982</v>
+        <v>1.194430031759008</v>
       </c>
       <c r="Y14">
-        <v>2.145670176886982</v>
+        <v>1.818607710430231</v>
       </c>
       <c r="Z14">
-        <v>2.145670176886982</v>
+        <v>-0.7976031983999987</v>
       </c>
       <c r="AA14">
-        <v>2.145670176886982</v>
+        <v>0.06930121167905146</v>
       </c>
       <c r="AB14">
-        <v>2.145670176886982</v>
+        <v>1.609625625599986</v>
       </c>
       <c r="AC14">
-        <v>2.145670176886982</v>
+        <v>-0.184185216762256</v>
       </c>
       <c r="AD14">
-        <v>2.145670176886982</v>
+        <v>0.2691345740890139</v>
       </c>
       <c r="AE14">
-        <v>2.145670176886982</v>
+        <v>0.2143710142614941</v>
       </c>
       <c r="AF14">
-        <v>2.145670176886982</v>
+        <v>-3.107661574595766</v>
       </c>
       <c r="AG14">
-        <v>2.145670176886982</v>
+        <v>-8.268943763593073</v>
       </c>
       <c r="AH14">
-        <v>2.145670176886982</v>
+        <v>-4.207901339433196</v>
       </c>
       <c r="AI14">
-        <v>2.145670176886982</v>
+        <v>-4.227675443964374</v>
       </c>
       <c r="AJ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AK14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AL14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AM14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AN14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AO14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AP14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AQ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AR14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AS14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AT14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AU14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AV14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AW14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AX14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AY14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AZ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="BA14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>2.6879348703293</v>
-      </c>
-      <c r="T15">
-        <v>0.7667337981632549</v>
-      </c>
-      <c r="U15">
-        <v>2.445693358388845</v>
-      </c>
-      <c r="V15">
-        <v>3.257358596620663</v>
-      </c>
-      <c r="W15">
-        <v>2.634902838428421</v>
-      </c>
-      <c r="X15">
-        <v>2.159589514946769</v>
-      </c>
-      <c r="Y15">
-        <v>2.33065612535226</v>
-      </c>
-      <c r="Z15">
-        <v>2.214251681313772</v>
-      </c>
-      <c r="AA15">
-        <v>2.168907011988219</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>2.214251681313772</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="AC15">
-        <v>1.976124254426526</v>
+        <v>-0.2983971950292652</v>
       </c>
       <c r="AD15">
-        <v>1.976124254426526</v>
+        <v>0.3370696288357955</v>
       </c>
       <c r="AE15">
-        <v>1.976124254426526</v>
+        <v>0.1120143486733172</v>
       </c>
       <c r="AF15">
-        <v>1.976124254426526</v>
+        <v>-8.513835774400015</v>
       </c>
       <c r="AG15">
-        <v>1.976124254426526</v>
+        <v>-31.94180729997805</v>
       </c>
       <c r="AH15">
-        <v>1.976124254426526</v>
+        <v>23.52713729381606</v>
       </c>
       <c r="AI15">
-        <v>1.976124254426526</v>
+        <v>1.269625353117143</v>
       </c>
       <c r="AJ15">
-        <v>1.976124254426526</v>
+        <v>-1.621578487659103</v>
       </c>
       <c r="AK15">
-        <v>1.976124254426526</v>
+        <v>0.7868572467511825</v>
       </c>
       <c r="AL15">
-        <v>1.976124254426526</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="AM15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AN15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AO15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AP15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AQ15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AR15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AS15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AT15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AU15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AV15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AW15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AX15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AY15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AZ15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="BA15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>2.445693358388845</v>
-      </c>
-      <c r="V16">
-        <v>3.33766686475403</v>
-      </c>
-      <c r="W16">
-        <v>2.450082126686781</v>
-      </c>
-      <c r="X16">
-        <v>1.194430031759008</v>
-      </c>
-      <c r="Y16">
-        <v>1.797074113438568</v>
-      </c>
-      <c r="Z16">
-        <v>-0.3013396321239648</v>
-      </c>
-      <c r="AA16">
-        <v>0.2120367165967529</v>
-      </c>
-      <c r="AB16">
-        <v>0.801449343663907</v>
-      </c>
-      <c r="AC16">
-        <v>0.5878492443567307</v>
-      </c>
-      <c r="AD16">
-        <v>0.6066442151010376</v>
-      </c>
-      <c r="AE16">
-        <v>0.6401509985818787</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>0.7060158009350337</v>
+        <v>-8.513835774400002</v>
       </c>
       <c r="AG16">
-        <v>0.7060158009350337</v>
+        <v>-33.48417392399604</v>
       </c>
       <c r="AH16">
-        <v>0.7060158009350337</v>
+        <v>38.48527504154076</v>
       </c>
       <c r="AI16">
-        <v>0.7060158009350337</v>
+        <v>1.369491273484913</v>
       </c>
       <c r="AJ16">
-        <v>0.7060158009350337</v>
+        <v>-7.034216978939012</v>
       </c>
       <c r="AK16">
-        <v>0.7060158009350337</v>
+        <v>5.737052250893782</v>
       </c>
       <c r="AL16">
-        <v>0.7060158009350337</v>
+        <v>6.182044950645027</v>
       </c>
       <c r="AM16">
-        <v>0.7060158009350337</v>
+        <v>1.019629253669163</v>
       </c>
       <c r="AN16">
-        <v>0.7060158009350337</v>
+        <v>1.906376895025041</v>
       </c>
       <c r="AO16">
-        <v>0.7060158009350337</v>
+        <v>2.262414851847194</v>
       </c>
       <c r="AP16">
-        <v>0.7060158009350337</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="AQ16">
-        <v>0.7060158009350337</v>
+        <v>2.329145926710607</v>
       </c>
       <c r="AR16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AS16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AT16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AU16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AV16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AW16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AX16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AY16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AZ16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="BA16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.194430031759031</v>
-      </c>
-      <c r="Y17">
-        <v>1.818607710430209</v>
-      </c>
-      <c r="Z17">
-        <v>-0.7976031984000098</v>
-      </c>
-      <c r="AA17">
-        <v>0.06930121167902925</v>
-      </c>
-      <c r="AB17">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="AC17">
-        <v>-0.1841852167622338</v>
-      </c>
-      <c r="AD17">
-        <v>0.2691345740889695</v>
-      </c>
-      <c r="AE17">
-        <v>0.2143710142614941</v>
-      </c>
-      <c r="AF17">
-        <v>-3.107661574595755</v>
-      </c>
-      <c r="AG17">
-        <v>-8.268943763593061</v>
-      </c>
-      <c r="AH17">
-        <v>-4.207901339433196</v>
-      </c>
-      <c r="AI17">
-        <v>-4.227675443964363</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-4.180878843351321</v>
+        <v>-7.034216978939012</v>
       </c>
       <c r="AK17">
-        <v>-4.180878843351321</v>
+        <v>6.694136025438979</v>
       </c>
       <c r="AL17">
-        <v>-4.180878843351321</v>
+        <v>6.951289452519305</v>
       </c>
       <c r="AM17">
-        <v>-4.180878843351321</v>
+        <v>-1.381539669055609</v>
       </c>
       <c r="AN17">
-        <v>-4.180878843351321</v>
+        <v>0.9449384537270955</v>
       </c>
       <c r="AO17">
-        <v>-4.180878843351321</v>
+        <v>0.7242061245421816</v>
       </c>
       <c r="AP17">
-        <v>-4.180878843351321</v>
+        <v>1.559758801257694</v>
       </c>
       <c r="AQ17">
-        <v>-4.180878843351321</v>
+        <v>-0.4844381132618314</v>
       </c>
       <c r="AR17">
-        <v>-4.180878843351321</v>
+        <v>-0.4925007786849234</v>
       </c>
       <c r="AS17">
-        <v>-4.180878843351321</v>
+        <v>-0.0462759835394233</v>
       </c>
       <c r="AT17">
-        <v>-4.180878843351321</v>
+        <v>0.0464415346324687</v>
       </c>
       <c r="AU17">
-        <v>-4.180878843351321</v>
+        <v>0.09917655306328488</v>
       </c>
       <c r="AV17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AW17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AX17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AY17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AZ17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="BA17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="AC18">
-        <v>-0.2983971950292763</v>
-      </c>
-      <c r="AD18">
-        <v>0.3370696288358177</v>
-      </c>
-      <c r="AE18">
-        <v>0.112014348673295</v>
-      </c>
-      <c r="AF18">
-        <v>-8.513835774399992</v>
-      </c>
-      <c r="AG18">
-        <v>-31.94180729997804</v>
-      </c>
-      <c r="AH18">
-        <v>23.52713729381604</v>
-      </c>
-      <c r="AI18">
-        <v>1.269625353117165</v>
-      </c>
-      <c r="AJ18">
-        <v>-1.621578487659159</v>
-      </c>
-      <c r="AK18">
-        <v>0.7868572467511603</v>
-      </c>
-      <c r="AL18">
-        <v>1.099928004397532</v>
-      </c>
-      <c r="AM18">
-        <v>1.312484974417272</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.312484974417272</v>
+        <v>0.9449384537270955</v>
       </c>
       <c r="AO18">
-        <v>1.312484974417272</v>
+        <v>0.5600718620764944</v>
       </c>
       <c r="AP18">
-        <v>1.312484974417272</v>
+        <v>1.610220125011574</v>
       </c>
       <c r="AQ18">
-        <v>1.312484974417272</v>
+        <v>-1.729907735624059</v>
       </c>
       <c r="AR18">
-        <v>1.312484974417272</v>
+        <v>-1.334423413378338</v>
       </c>
       <c r="AS18">
-        <v>1.312484974417272</v>
+        <v>0.04644557489565937</v>
       </c>
       <c r="AT18">
-        <v>1.312484974417272</v>
+        <v>-0.3513551123189074</v>
       </c>
       <c r="AU18">
-        <v>1.312484974417272</v>
+        <v>-0.6828258883444516</v>
       </c>
       <c r="AV18">
-        <v>1.312484974417272</v>
+        <v>-0.04522577349396206</v>
       </c>
       <c r="AW18">
-        <v>1.312484974417272</v>
+        <v>-0.243463903689245</v>
       </c>
       <c r="AX18">
-        <v>1.312484974417272</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="AY18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
       <c r="AZ18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
       <c r="BA18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-8.513835774400025</v>
-      </c>
-      <c r="AG19">
-        <v>-33.48417392399605</v>
-      </c>
-      <c r="AH19">
-        <v>38.48527504154078</v>
-      </c>
-      <c r="AI19">
-        <v>1.369491273484913</v>
-      </c>
-      <c r="AJ19">
-        <v>-7.034216978939012</v>
-      </c>
-      <c r="AK19">
-        <v>5.737052250893804</v>
-      </c>
-      <c r="AL19">
-        <v>6.182044950645005</v>
-      </c>
-      <c r="AM19">
-        <v>1.019629253669163</v>
-      </c>
-      <c r="AN19">
-        <v>1.906376895025019</v>
-      </c>
-      <c r="AO19">
-        <v>2.262414851847194</v>
-      </c>
-      <c r="AP19">
-        <v>2.310042359896225</v>
-      </c>
-      <c r="AQ19">
-        <v>2.329145926710607</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>2.386394320099239</v>
+        <v>-1.334423413378327</v>
       </c>
       <c r="AS19">
-        <v>2.386394320099239</v>
+        <v>0.07429948659762875</v>
       </c>
       <c r="AT19">
-        <v>2.386394320099239</v>
+        <v>-0.5174862215317821</v>
       </c>
       <c r="AU19">
-        <v>2.386394320099239</v>
+        <v>-1.143293480177665</v>
       </c>
       <c r="AV19">
-        <v>2.386394320099239</v>
+        <v>0.8571375889190769</v>
       </c>
       <c r="AW19">
-        <v>2.386394320099239</v>
+        <v>-0.1929563298375014</v>
       </c>
       <c r="AX19">
-        <v>2.386394320099239</v>
+        <v>0.2561130241983456</v>
       </c>
       <c r="AY19">
-        <v>2.386394320099239</v>
+        <v>-0.5104822884906102</v>
       </c>
       <c r="AZ19">
-        <v>2.386394320099239</v>
+        <v>0.4071596777631692</v>
       </c>
       <c r="BA19">
-        <v>2.386394320099239</v>
+        <v>-0.1890291825527246</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-7.034216978939001</v>
-      </c>
-      <c r="AK20">
-        <v>6.694136025439001</v>
-      </c>
-      <c r="AL20">
-        <v>6.95128945251926</v>
-      </c>
-      <c r="AM20">
-        <v>-1.381539669055609</v>
-      </c>
-      <c r="AN20">
-        <v>0.9449384537271177</v>
-      </c>
-      <c r="AO20">
-        <v>0.7242061245421816</v>
-      </c>
-      <c r="AP20">
-        <v>1.559758801257694</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.4844381132618425</v>
-      </c>
-      <c r="AR20">
-        <v>-0.4925007786849345</v>
-      </c>
-      <c r="AS20">
-        <v>-0.0462759835394122</v>
-      </c>
-      <c r="AT20">
-        <v>0.0464415346324687</v>
-      </c>
-      <c r="AU20">
-        <v>0.09917655306330708</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.2104414886460626</v>
+        <v>0.8571375889190769</v>
       </c>
       <c r="AW20">
-        <v>0.2104414886460626</v>
+        <v>-0.2667616610271262</v>
       </c>
       <c r="AX20">
-        <v>0.2104414886460626</v>
+        <v>0.4215001129234786</v>
       </c>
       <c r="AY20">
-        <v>0.2104414886460626</v>
+        <v>-0.799743249960494</v>
       </c>
       <c r="AZ20">
-        <v>0.2104414886460626</v>
+        <v>1.656803071859136</v>
       </c>
       <c r="BA20">
-        <v>0.2104414886460626</v>
+        <v>-0.9576579957581766</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>0.9449384537270955</v>
-      </c>
-      <c r="AO21">
-        <v>0.5600718620764722</v>
-      </c>
-      <c r="AP21">
-        <v>1.610220125011574</v>
-      </c>
-      <c r="AQ21">
-        <v>-1.729907735624048</v>
-      </c>
-      <c r="AR21">
-        <v>-1.334423413378338</v>
-      </c>
-      <c r="AS21">
-        <v>0.04644557489568157</v>
-      </c>
-      <c r="AT21">
-        <v>-0.3513551123189185</v>
-      </c>
-      <c r="AU21">
-        <v>-0.6828258883444405</v>
-      </c>
-      <c r="AV21">
-        <v>-0.04522577349396206</v>
-      </c>
-      <c r="AW21">
-        <v>-0.2434639036892561</v>
-      </c>
-      <c r="AX21">
-        <v>-0.3101476031197148</v>
-      </c>
-      <c r="AY21">
-        <v>-0.3095793941792713</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.3095793941792713</v>
+        <v>1.656803071859136</v>
       </c>
       <c r="BA21">
-        <v>-0.3095793941792713</v>
+        <v>-1.102152441984716</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-1.334423413378361</v>
-      </c>
-      <c r="AS22">
-        <v>0.07429948659758434</v>
-      </c>
-      <c r="AT22">
-        <v>-0.5174862215317932</v>
-      </c>
-      <c r="AU22">
-        <v>-1.143293480177676</v>
-      </c>
-      <c r="AV22">
-        <v>0.8571375889190769</v>
-      </c>
-      <c r="AW22">
-        <v>-0.1929563298375347</v>
-      </c>
-      <c r="AX22">
-        <v>0.2561130241983234</v>
-      </c>
-      <c r="AY22">
-        <v>-0.5104822884906213</v>
-      </c>
-      <c r="AZ22">
-        <v>0.4071596777631692</v>
-      </c>
-      <c r="BA22">
-        <v>-0.1890291825527246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.8571375889190769</v>
-      </c>
-      <c r="AW23">
-        <v>-0.266761661027104</v>
-      </c>
-      <c r="AX23">
-        <v>0.4215001129234563</v>
-      </c>
-      <c r="AY23">
-        <v>-0.7997432499605051</v>
-      </c>
-      <c r="AZ23">
-        <v>1.656803071859136</v>
-      </c>
-      <c r="BA23">
-        <v>-0.9576579957582099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>1.656803071859136</v>
-      </c>
-      <c r="BA24">
-        <v>-1.102152441984738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-5.109987415979145</v>
       </c>
+      <c r="BB3">
+        <v>-5.109987415979145</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>2.253603114136604</v>
       </c>
+      <c r="BB4">
+        <v>2.253603114136604</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>3.738382206110891</v>
       </c>
+      <c r="BB5">
+        <v>3.738382206110891</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>1.165974434765671</v>
       </c>
+      <c r="BB6">
+        <v>1.165974434765671</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.0426719751787874</v>
       </c>
+      <c r="BB7">
+        <v>-0.0426719751787874</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>1.529758493743438</v>
       </c>
+      <c r="BB8">
+        <v>1.529758493743438</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>1.358758534900462</v>
       </c>
+      <c r="BB9">
+        <v>1.358758534900462</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>1.664905435092301</v>
       </c>
+      <c r="BB10">
+        <v>1.664905435092301</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>2.145670176886982</v>
       </c>
+      <c r="BB11">
+        <v>2.145670176886982</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>1.976124254426503</v>
       </c>
+      <c r="BB12">
+        <v>1.976124254426503</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>0.7060158009350337</v>
       </c>
+      <c r="BB13">
+        <v>0.7060158009350337</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-4.180878843351332</v>
       </c>
+      <c r="BB14">
+        <v>-4.180878843351332</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>1.312484974417294</v>
       </c>
+      <c r="BB15">
+        <v>1.312484974417294</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>2.386394320099283</v>
       </c>
+      <c r="BB16">
+        <v>2.386394320099283</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.2104414886460626</v>
       </c>
+      <c r="BB17">
+        <v>0.2104414886460626</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-0.3095793941792935</v>
       </c>
+      <c r="BB18">
+        <v>-0.3095793941792935</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-0.1890291825527246</v>
       </c>
+      <c r="BB19">
+        <v>-0.08656168856399082</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>-0.9576579957581766</v>
       </c>
+      <c r="BB20">
+        <v>-0.02867614772544824</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-1.102152441984716</v>
       </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
